--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R72debe1128c64f5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd8987dca5e324e0f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd8987dca5e324e0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb46618f4ebd747e0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb46618f4ebd747e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd2c1f78090ab4c5c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,12 +28,12 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -46,7 +46,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rd2c1f78090ab4c5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ra6bb0c81b27f42f6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ra6bb0c81b27f42f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R006b62788e154ff8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R006b62788e154ff8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6118e082c0624e32"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6118e082c0624e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6abe0ab6daa34f73"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6abe0ab6daa34f73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5081c06294e94af8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5081c06294e94af8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc8bc5fbb0c4b4fb4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc8bc5fbb0c4b4fb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6929ca9217534b77"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6929ca9217534b77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R42b9e46bf2b74cd6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R42b9e46bf2b74cd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re3c07fd8e674409e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re3c07fd8e674409e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2a7961aba1594f9a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2a7961aba1594f9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R13239b450f184a65"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R13239b450f184a65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rbae0a9c0d0084407"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rbae0a9c0d0084407"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R4f41689ce75344b9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R4f41689ce75344b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5f3a2006643a4f93"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R5f3a2006643a4f93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R63d19ef28c7e4846"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc150e32ce3514990"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2fa8184cc948409b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2fa8184cc948409b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R69d8e04e54ac429c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R69d8e04e54ac429c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R56011317d65b471b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R56011317d65b471b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc0da63fe0e824668"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc0da63fe0e824668"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R03702296d9b147a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R03702296d9b147a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R255a9a64b4964183"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R255a9a64b4964183"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R747f935b22ab493b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R747f935b22ab493b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6e0f3bb079b546d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6e0f3bb079b546d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb54c6338ffbf412c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rb54c6338ffbf412c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ra72296e1df6f4cb7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ra72296e1df6f4cb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R97542bd05d5b43c0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R97542bd05d5b43c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R71a7d21c84074dee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R71a7d21c84074dee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R01c6468f1fbd4df4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R01c6468f1fbd4df4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6964c584ace442ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6964c584ace442ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re0f8b42d27804210"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re0f8b42d27804210"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ree5effa39a214758"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Ree5effa39a214758"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re7a885247ede47de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Re7a885247ede47de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R1263236b2ecc44f0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R1263236b2ecc44f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6b5ac0dfc4484790"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6b5ac0dfc4484790"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2e6e3b52ca294926"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R2e6e3b52ca294926"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R90916c82c68a42eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R90916c82c68a42eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc144e1ad8a8b46c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Rc144e1ad8a8b46c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6e0e3019c722490f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/29_JsonArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="R6e0e3019c722490f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JsonImport" sheetId="1" r:id="Raa26a0a6cf8549d3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
